--- a/mycraft/Assets/StreamingAssets/locale/ko/items.xlsx
+++ b/mycraft/Assets/StreamingAssets/locale/ko/items.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538F27C-0E63-4808-A053-6FA772B4EAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A5A87-649F-4894-980F-EAAD36678C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1530" windowWidth="23745" windowHeight="13815" tabRatio="756" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="270" windowWidth="24945" windowHeight="14445" tabRatio="756" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="자원" sheetId="5" r:id="rId1"/>
@@ -2389,10 +2389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자동화 과학팩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3591,6 +3587,10 @@
   </si>
   <si>
     <t>강철판*10 + 구리선*10 + 전자회로*20 + 고급회로*20 + 15초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고체연료*30 + 30초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3677,7 +3677,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3693,6 +3693,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3870,7 +3876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3911,21 +3917,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3973,8 +3964,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4495,66 +4508,66 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
         <v>284</v>
-      </c>
-      <c r="C2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
         <v>286</v>
-      </c>
-      <c r="C3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
         <v>288</v>
-      </c>
-      <c r="C4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
         <v>290</v>
-      </c>
-      <c r="C5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="s">
         <v>292</v>
-      </c>
-      <c r="C6" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
         <v>294</v>
-      </c>
-      <c r="C7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
         <v>296</v>
-      </c>
-      <c r="C8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" t="s">
         <v>298</v>
-      </c>
-      <c r="C9" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4579,98 +4592,98 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
         <v>302</v>
-      </c>
-      <c r="C3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
         <v>304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" t="s">
         <v>308</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
         <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
         <v>312</v>
-      </c>
-      <c r="C8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
         <v>314</v>
-      </c>
-      <c r="C9" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
         <v>316</v>
-      </c>
-      <c r="C10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
         <v>318</v>
-      </c>
-      <c r="C11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" t="s">
         <v>320</v>
-      </c>
-      <c r="C12" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
         <v>322</v>
-      </c>
-      <c r="C13" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4695,66 +4708,66 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
         <v>324</v>
-      </c>
-      <c r="C2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
         <v>326</v>
-      </c>
-      <c r="C3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
         <v>328</v>
-      </c>
-      <c r="C4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
         <v>331</v>
-      </c>
-      <c r="C6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
         <v>333</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" t="s">
         <v>335</v>
-      </c>
-      <c r="C8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
         <v>337</v>
-      </c>
-      <c r="C9" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4779,50 +4792,50 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s">
         <v>339</v>
-      </c>
-      <c r="C2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="s">
         <v>341</v>
-      </c>
-      <c r="C3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" t="s">
         <v>343</v>
-      </c>
-      <c r="C4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
         <v>345</v>
-      </c>
-      <c r="C5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" t="s">
         <v>347</v>
-      </c>
-      <c r="C6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" t="s">
         <v>349</v>
-      </c>
-      <c r="C7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -4830,7 +4843,7 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -4838,7 +4851,7 @@
         <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4863,409 +4876,409 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" t="s">
         <v>354</v>
-      </c>
-      <c r="C3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" t="s">
         <v>356</v>
-      </c>
-      <c r="C4" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" t="s">
         <v>358</v>
-      </c>
-      <c r="C5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
         <v>361</v>
-      </c>
-      <c r="C7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" t="s">
         <v>364</v>
-      </c>
-      <c r="C8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" t="s">
         <v>366</v>
-      </c>
-      <c r="C9" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" t="s">
         <v>369</v>
-      </c>
-      <c r="C11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" t="s">
         <v>371</v>
-      </c>
-      <c r="C12" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" t="s">
         <v>373</v>
-      </c>
-      <c r="C13" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" t="s">
         <v>380</v>
-      </c>
-      <c r="C17" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" t="s">
         <v>382</v>
-      </c>
-      <c r="C18" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" t="s">
         <v>384</v>
-      </c>
-      <c r="C19" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" t="s">
         <v>386</v>
-      </c>
-      <c r="C20" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" t="s">
         <v>388</v>
-      </c>
-      <c r="C21" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" t="s">
         <v>390</v>
-      </c>
-      <c r="C22" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" t="s">
         <v>393</v>
-      </c>
-      <c r="C24" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" t="s">
         <v>395</v>
-      </c>
-      <c r="C25" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
+        <v>396</v>
+      </c>
+      <c r="C26" t="s">
         <v>397</v>
-      </c>
-      <c r="C26" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" t="s">
         <v>399</v>
-      </c>
-      <c r="C27" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C28" t="s">
         <v>401</v>
-      </c>
-      <c r="C28" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" t="s">
         <v>403</v>
-      </c>
-      <c r="C29" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C30" t="s">
         <v>405</v>
-      </c>
-      <c r="C30" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" t="s">
         <v>408</v>
-      </c>
-      <c r="C32" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" t="s">
         <v>410</v>
-      </c>
-      <c r="C33" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" t="s">
         <v>412</v>
       </c>
-      <c r="C34" t="s">
-        <v>413</v>
-      </c>
       <c r="D34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" t="s">
         <v>414</v>
       </c>
-      <c r="C35" t="s">
-        <v>415</v>
-      </c>
       <c r="D35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C37" t="s">
         <v>419</v>
-      </c>
-      <c r="C37" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="B38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" t="s">
         <v>422</v>
-      </c>
-      <c r="C39" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
+        <v>423</v>
+      </c>
+      <c r="C40" t="s">
         <v>424</v>
-      </c>
-      <c r="C40" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C41" t="s">
         <v>426</v>
-      </c>
-      <c r="C41" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42" t="s">
         <v>428</v>
-      </c>
-      <c r="C42" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" t="s">
         <v>430</v>
-      </c>
-      <c r="C43" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C44" t="s">
         <v>432</v>
-      </c>
-      <c r="C44" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
+        <v>433</v>
+      </c>
+      <c r="C45" t="s">
         <v>434</v>
-      </c>
-      <c r="C45" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
+        <v>436</v>
+      </c>
+      <c r="C47" t="s">
         <v>437</v>
-      </c>
-      <c r="C47" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" t="s">
+        <v>438</v>
+      </c>
+      <c r="C48" t="s">
         <v>439</v>
-      </c>
-      <c r="C48" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" t="s">
         <v>441</v>
-      </c>
-      <c r="C49" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
+        <v>442</v>
+      </c>
+      <c r="C50" t="s">
         <v>443</v>
-      </c>
-      <c r="C50" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
+        <v>444</v>
+      </c>
+      <c r="C51" t="s">
         <v>445</v>
-      </c>
-      <c r="C51" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
+        <v>446</v>
+      </c>
+      <c r="C52" t="s">
         <v>447</v>
-      </c>
-      <c r="C52" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C53" t="s">
         <v>449</v>
-      </c>
-      <c r="C53" t="s">
-        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5278,7 +5291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA5F9E9-F10E-4459-A949-12E5582501EB}">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -5290,142 +5303,142 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" t="s">
         <v>452</v>
-      </c>
-      <c r="C3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" t="s">
         <v>454</v>
-      </c>
-      <c r="C4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" t="s">
         <v>456</v>
-      </c>
-      <c r="C5" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" t="s">
         <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" t="s">
         <v>460</v>
-      </c>
-      <c r="C7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" t="s">
         <v>462</v>
-      </c>
-      <c r="C8" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" t="s">
         <v>465</v>
-      </c>
-      <c r="C10" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" t="s">
         <v>467</v>
-      </c>
-      <c r="C11" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" t="s">
         <v>469</v>
-      </c>
-      <c r="C12" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" t="s">
         <v>472</v>
-      </c>
-      <c r="C14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" t="s">
         <v>474</v>
-      </c>
-      <c r="C15" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" t="s">
         <v>476</v>
-      </c>
-      <c r="C16" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" t="s">
         <v>478</v>
-      </c>
-      <c r="C17" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" t="s">
         <v>481</v>
-      </c>
-      <c r="C19" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C20" t="s">
         <v>483</v>
-      </c>
-      <c r="C20" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5433,64 +5446,64 @@
         <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" t="s">
         <v>486</v>
-      </c>
-      <c r="C22" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" t="s">
         <v>488</v>
-      </c>
-      <c r="C23" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" t="s">
         <v>490</v>
-      </c>
-      <c r="C24" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" t="s">
         <v>496</v>
-      </c>
-      <c r="C31" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5816,15 +5829,15 @@
       <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1">
       <c r="A3" s="2" t="s">
@@ -5836,15 +5849,15 @@
       <c r="C3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1">
       <c r="A4" s="13" t="s">
@@ -5889,14 +5902,14 @@
       <c r="E5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickBot="1">
       <c r="A6" s="14"/>
@@ -5906,17 +5919,17 @@
       <c r="C6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1">
       <c r="A7" s="15"/>
@@ -5926,15 +5939,15 @@
       <c r="C7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1">
       <c r="A8" s="2" t="s">
@@ -5946,13 +5959,13 @@
       <c r="C8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1">
       <c r="A9" s="13" t="s">
@@ -5985,9 +5998,9 @@
       <c r="H10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1">
       <c r="A11" s="15"/>
@@ -6166,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46387B9E-E090-4705-977D-9436CFE4BA9C}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6421,7 +6434,7 @@
       <c r="A28" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6429,7 +6442,7 @@
       <c r="A29" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="39" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6437,7 +6450,7 @@
       <c r="A30" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="39" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6445,7 +6458,7 @@
       <c r="A31" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="39" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6453,7 +6466,7 @@
       <c r="A32" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="39" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6461,7 +6474,7 @@
       <c r="A33" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="39" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6509,8 +6522,8 @@
       <c r="A39" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>195</v>
+      <c r="B39" s="37" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6533,7 +6546,7 @@
       <c r="A42" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="39" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6636,7 +6649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2262D8A7-C20E-4D4B-8818-03E61EA7AF03}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6648,55 +6661,55 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
         <v>196</v>
-      </c>
-      <c r="C2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
         <v>198</v>
-      </c>
-      <c r="C3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
         <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
         <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
         <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6721,79 +6734,79 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" t="s">
-        <v>210</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
-        <v>216</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
         <v>217</v>
       </c>
-      <c r="B6" t="s">
-        <v>218</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
         <v>219</v>
       </c>
-      <c r="B7" t="s">
-        <v>220</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
         <v>221</v>
       </c>
-      <c r="B8" t="s">
-        <v>222</v>
-      </c>
       <c r="C8" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6806,85 +6819,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2093A881-123F-4278-AC61-48931E9125AD}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
         <v>231</v>
-      </c>
-      <c r="C3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
         <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
         <v>235</v>
-      </c>
-      <c r="C5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
         <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
         <v>239</v>
-      </c>
-      <c r="C7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
         <v>241</v>
-      </c>
-      <c r="C8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
         <v>243</v>
-      </c>
-      <c r="C9" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
         <v>245</v>
-      </c>
-      <c r="C10" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6909,69 +6923,69 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
         <v>247</v>
-      </c>
-      <c r="C2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
         <v>249</v>
-      </c>
-      <c r="C3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
         <v>251</v>
-      </c>
-      <c r="C4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
         <v>253</v>
       </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6996,42 +7010,42 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
         <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
         <v>262</v>
-      </c>
-      <c r="C3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" t="s">
         <v>264</v>
-      </c>
-      <c r="C4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
         <v>266</v>
-      </c>
-      <c r="C6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
         <v>268</v>
-      </c>
-      <c r="C7" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7056,58 +7070,58 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
         <v>270</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
         <v>272</v>
-      </c>
-      <c r="C3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" t="s">
         <v>274</v>
-      </c>
-      <c r="C4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
         <v>276</v>
-      </c>
-      <c r="C5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
         <v>278</v>
-      </c>
-      <c r="C7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s">
         <v>280</v>
-      </c>
-      <c r="C8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" t="s">
         <v>282</v>
-      </c>
-      <c r="C10" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
